--- a/GL50_Script_ManageJournalCategories_21B.xlsx
+++ b/GL50_Script_ManageJournalCategories_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76834D9-8500-4F48-BE70-2A09A0F19A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53970FC0-E7DD-4400-9285-E019089A3E62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageJournalCategories" sheetId="30" r:id="rId1"/>
@@ -459,9 +459,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>SetDelay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wait for SearchTasks </t>
   </si>
   <si>
@@ -812,6 +809,9 @@
   </si>
   <si>
     <t>CHANGE HISTORY</t>
+  </si>
+  <si>
+    <t>WaitForDelay</t>
   </si>
 </sst>
 </file>
@@ -18295,7 +18295,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13">
@@ -18429,7 +18429,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -18465,7 +18465,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N4" s="10"/>
     </row>
@@ -18501,7 +18501,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N5" s="10"/>
     </row>
@@ -18534,12 +18534,12 @@
         <v>41</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="13"/>
       <c r="M6" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -18573,7 +18573,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="15"/>
       <c r="M7" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -18606,12 +18606,12 @@
         <v>41</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="13"/>
       <c r="M8" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -18645,7 +18645,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -18678,12 +18678,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="13"/>
       <c r="M10" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -18717,7 +18717,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -18750,12 +18750,12 @@
         <v>41</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N12" s="17"/>
     </row>
@@ -18789,7 +18789,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N13" s="17"/>
     </row>
@@ -18822,12 +18822,12 @@
         <v>41</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N14" s="17"/>
     </row>
@@ -18861,7 +18861,7 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N15" s="17"/>
     </row>
@@ -18882,22 +18882,22 @@
         <v>143</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="16"/>
       <c r="M16" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N16" s="21"/>
     </row>
@@ -18912,10 +18912,10 @@
         <v>107</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>23</v>
@@ -18924,18 +18924,18 @@
         <v>36</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N17" s="10"/>
     </row>
@@ -18950,10 +18950,10 @@
         <v>108</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>23</v>
@@ -18962,7 +18962,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>21</v>
@@ -18971,7 +18971,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N18" s="10"/>
     </row>
@@ -18986,10 +18986,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>23</v>
@@ -18998,7 +18998,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>41</v>
@@ -19009,7 +19009,7 @@
       <c r="K19" s="11"/>
       <c r="L19" s="16"/>
       <c r="M19" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N19" s="17"/>
     </row>
@@ -19024,10 +19024,10 @@
         <v>110</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>23</v>
@@ -19042,12 +19042,12 @@
         <v>41</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N20" s="17"/>
     </row>
@@ -19062,10 +19062,10 @@
         <v>111</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>23</v>
@@ -19081,7 +19081,7 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -19096,10 +19096,10 @@
         <v>112</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>23</v>
@@ -19108,18 +19108,18 @@
         <v>36</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N22" s="17"/>
     </row>
@@ -19134,10 +19134,10 @@
         <v>113</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>23</v>
@@ -19146,14 +19146,14 @@
         <v>20</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N23" s="17"/>
     </row>
@@ -19186,12 +19186,12 @@
         <v>41</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="13"/>
       <c r="M24" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N24" s="10"/>
     </row>
@@ -19225,7 +19225,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="15"/>
       <c r="M25" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -19258,12 +19258,12 @@
         <v>41</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="13"/>
       <c r="M26" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N26" s="10"/>
     </row>
@@ -19297,7 +19297,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="15"/>
       <c r="M27" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N27" s="10"/>
     </row>
@@ -19335,7 +19335,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="15"/>
       <c r="M28" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -19373,7 +19373,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="15"/>
       <c r="M29" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -19411,7 +19411,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="15"/>
       <c r="M30" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -19445,7 +19445,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="15"/>
       <c r="M31" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -19457,7 +19457,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>142</v>
@@ -19466,22 +19466,22 @@
         <v>142</v>
       </c>
       <c r="F32" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -19493,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>62</v>
@@ -19514,12 +19514,12 @@
         <v>41</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="13"/>
       <c r="M33" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N33" s="10"/>
     </row>
@@ -19531,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>64</v>
@@ -19553,7 +19553,7 @@
       <c r="K34" s="11"/>
       <c r="L34" s="15"/>
       <c r="M34" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N34" s="10"/>
     </row>
@@ -19565,7 +19565,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>78</v>
@@ -19586,12 +19586,12 @@
         <v>41</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="13"/>
       <c r="M35" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N35" s="10"/>
     </row>
@@ -19603,31 +19603,31 @@
         <v>1</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -19639,13 +19639,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>23</v>
@@ -19654,14 +19654,14 @@
         <v>20</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="14"/>
       <c r="K37" s="11"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -19673,13 +19673,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>23</v>
@@ -19688,7 +19688,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>41</v>
@@ -19699,7 +19699,7 @@
       <c r="K38" s="11"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -19711,31 +19711,31 @@
         <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K39" s="11"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N39" s="10"/>
     </row>
@@ -19747,13 +19747,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>23</v>
@@ -19762,14 +19762,14 @@
         <v>20</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="14"/>
       <c r="K40" s="11"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -19781,10 +19781,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>35</v>
@@ -19796,18 +19796,18 @@
         <v>36</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -19819,13 +19819,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>23</v>
@@ -19834,7 +19834,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>41</v>
@@ -19845,7 +19845,7 @@
       <c r="K42" s="11"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -19857,31 +19857,31 @@
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N43" s="10"/>
     </row>
@@ -19893,7 +19893,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>142</v>
@@ -19902,22 +19902,22 @@
         <v>142</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -19929,7 +19929,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>85</v>
@@ -19944,18 +19944,18 @@
         <v>36</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="13"/>
       <c r="M45" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>82</v>
@@ -19982,14 +19982,14 @@
         <v>20</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="14"/>
       <c r="K46" s="11"/>
       <c r="L46" s="15"/>
       <c r="M46" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -20001,7 +20001,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>142</v>
@@ -20010,22 +20010,22 @@
         <v>142</v>
       </c>
       <c r="F47" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N47" s="10"/>
     </row>
@@ -20037,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>85</v>
@@ -20058,12 +20058,12 @@
         <v>41</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="13"/>
       <c r="M48" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -20075,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>86</v>
@@ -20097,7 +20097,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="15"/>
       <c r="M49" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N49" s="10"/>
     </row>
@@ -20109,7 +20109,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>88</v>
@@ -20135,7 +20135,7 @@
       <c r="K50" s="11"/>
       <c r="L50" s="15"/>
       <c r="M50" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N50" s="10"/>
     </row>
@@ -20147,7 +20147,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>75</v>
@@ -20169,7 +20169,7 @@
       <c r="K51" s="11"/>
       <c r="L51" s="15"/>
       <c r="M51" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N51" s="10"/>
     </row>
@@ -20181,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>62</v>
@@ -20202,12 +20202,12 @@
         <v>41</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="13"/>
       <c r="M52" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N52" s="10"/>
     </row>
@@ -20219,7 +20219,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>64</v>
@@ -20241,7 +20241,7 @@
       <c r="K53" s="11"/>
       <c r="L53" s="15"/>
       <c r="M53" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N53" s="10"/>
     </row>
@@ -20253,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>78</v>
@@ -20274,12 +20274,12 @@
         <v>41</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="13"/>
       <c r="M54" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N54" s="10"/>
     </row>
@@ -20291,31 +20291,31 @@
         <v>1</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N55" s="10"/>
     </row>
@@ -20327,13 +20327,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>23</v>
@@ -20342,14 +20342,14 @@
         <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I56" s="11"/>
       <c r="J56" s="14"/>
       <c r="K56" s="11"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N56" s="10"/>
     </row>
@@ -20361,13 +20361,13 @@
         <v>1</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>23</v>
@@ -20376,7 +20376,7 @@
         <v>40</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>41</v>
@@ -20387,7 +20387,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -20399,31 +20399,31 @@
         <v>1</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N58" s="10"/>
     </row>
@@ -20435,13 +20435,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>23</v>
@@ -20450,14 +20450,14 @@
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="14"/>
       <c r="K59" s="11"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N59" s="10"/>
     </row>
@@ -20469,10 +20469,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>35</v>
@@ -20484,18 +20484,18 @@
         <v>36</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -20507,13 +20507,13 @@
         <v>1</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>23</v>
@@ -20522,7 +20522,7 @@
         <v>40</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>41</v>
@@ -20533,7 +20533,7 @@
       <c r="K61" s="11"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N61" s="10"/>
     </row>
@@ -20545,31 +20545,31 @@
         <v>1</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N62" s="10"/>
     </row>
@@ -20581,7 +20581,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>142</v>
@@ -20590,22 +20590,22 @@
         <v>142</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N63" s="10"/>
     </row>
@@ -20617,10 +20617,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>35</v>
@@ -20632,18 +20632,18 @@
         <v>36</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K64" s="10"/>
       <c r="L64" s="13"/>
       <c r="M64" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N64" s="10"/>
     </row>
@@ -20655,7 +20655,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>88</v>
@@ -20670,7 +20670,7 @@
         <v>87</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>41</v>
@@ -20681,7 +20681,7 @@
       <c r="K65" s="11"/>
       <c r="L65" s="15"/>
       <c r="M65" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N65" s="10"/>
     </row>
@@ -20693,7 +20693,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>75</v>
@@ -20715,7 +20715,7 @@
       <c r="K66" s="11"/>
       <c r="L66" s="15"/>
       <c r="M66" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -20727,7 +20727,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>62</v>
@@ -20748,12 +20748,12 @@
         <v>41</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="13"/>
       <c r="M67" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N67" s="10"/>
     </row>
@@ -20763,10 +20763,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>35</v>
@@ -20784,12 +20784,12 @@
         <v>41</v>
       </c>
       <c r="J68" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="13"/>
       <c r="M68" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N68" s="10"/>
     </row>
@@ -20799,7 +20799,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>58</v>
@@ -20825,7 +20825,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -20835,13 +20835,13 @@
         <v>1</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>23</v>
@@ -20850,18 +20850,18 @@
         <v>36</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -20871,13 +20871,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>23</v>
@@ -20886,7 +20886,7 @@
         <v>20</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>21</v>
@@ -20897,7 +20897,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="10"/>
       <c r="M71" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -20907,13 +20907,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>23</v>
@@ -20922,18 +20922,18 @@
         <v>36</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -20943,13 +20943,13 @@
         <v>1</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>23</v>
@@ -20958,18 +20958,18 @@
         <v>36</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J73" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K73" s="10"/>
       <c r="L73" s="10"/>
       <c r="M73" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N73" s="10"/>
     </row>
@@ -20979,13 +20979,13 @@
         <v>1</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D74" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>23</v>
@@ -20994,7 +20994,7 @@
         <v>20</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>21</v>
@@ -21005,7 +21005,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N74" s="10"/>
     </row>
@@ -21015,7 +21015,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>96</v>
@@ -21044,7 +21044,6 @@
       <c r="N75" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M75" xr:uid="{030324C4-A398-4F81-AE3B-537E6D31C492}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H26">
     <cfRule type="duplicateValues" dxfId="79" priority="67"/>
@@ -21286,7 +21285,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>23</v>
@@ -21314,7 +21313,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>23</v>
@@ -21468,7 +21467,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>23</v>
@@ -21482,7 +21481,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>23</v>
@@ -21490,13 +21489,13 @@
     </row>
     <row r="19" spans="1:4" ht="13">
       <c r="A19" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>23</v>
@@ -21518,13 +21517,13 @@
     </row>
     <row r="21" spans="1:4" ht="13">
       <c r="A21" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>23</v>
@@ -21532,13 +21531,13 @@
     </row>
     <row r="22" spans="1:4" ht="13">
       <c r="A22" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>23</v>
@@ -21546,13 +21545,13 @@
     </row>
     <row r="23" spans="1:4" ht="13">
       <c r="A23" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>23</v>
@@ -21560,13 +21559,13 @@
     </row>
     <row r="24" spans="1:4" ht="13">
       <c r="A24" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>23</v>
@@ -21574,13 +21573,13 @@
     </row>
     <row r="25" spans="1:4" ht="13">
       <c r="A25" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>23</v>
@@ -21588,13 +21587,13 @@
     </row>
     <row r="26" spans="1:4" ht="13">
       <c r="A26" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>23</v>
@@ -21602,13 +21601,13 @@
     </row>
     <row r="27" spans="1:4" ht="13">
       <c r="A27" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>23</v>
@@ -21616,13 +21615,13 @@
     </row>
     <row r="28" spans="1:4" ht="13">
       <c r="A28" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>23</v>
@@ -21636,7 +21635,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>23</v>
@@ -21644,13 +21643,13 @@
     </row>
     <row r="30" spans="1:4" ht="13">
       <c r="A30" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>23</v>

--- a/GL50_Script_ManageJournalCategories_21B.xlsx
+++ b/GL50_Script_ManageJournalCategories_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\GNB Batch 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53970FC0-E7DD-4400-9285-E019089A3E62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB9E56-F69D-4EA7-9BBA-6438E502FAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageJournalCategories" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$M$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$N$75</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="263">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Wait</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wait for SearchTasks </t>
   </si>
   <si>
@@ -619,12 +616,6 @@
   </si>
   <si>
     <t>Clicked on SearchLedger</t>
-  </si>
-  <si>
-    <t>Enter the SearchLedger</t>
-  </si>
-  <si>
-    <t>SearchLedger entered</t>
   </si>
   <si>
     <t>Enter</t>
@@ -811,7 +802,19 @@
     <t>CHANGE HISTORY</t>
   </si>
   <si>
-    <t>WaitForDelay</t>
+    <t>wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entered  </t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Category </t>
+  </si>
+  <si>
+    <t>Entered Category</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1005,7 +1008,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1013,21 +1015,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="52">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,30 +1269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9278,44 +9243,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="51" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="51" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7827">
@@ -17147,7 +17092,17 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18295,7 +18250,7 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18303,13 +18258,13 @@
     <col min="1" max="1" width="23.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7265625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.90625" style="2" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="24.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14.1796875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="37.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="14.81640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -18317,2895 +18272,2708 @@
     <col min="15" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="22" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="M3" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="M4" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6"/>
+      <c r="M6" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8"/>
+      <c r="M8" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10"/>
+      <c r="M10" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="8" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="11" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="8" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="8" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24"/>
+      <c r="M24" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26"/>
+      <c r="M26" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33"/>
+      <c r="M33" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35"/>
+      <c r="M35" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="M38" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="M42" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="10" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45"/>
+      <c r="M45" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48"/>
+      <c r="M48" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52"/>
+      <c r="M52" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54"/>
+      <c r="M54" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="M57" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="M61" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="M63" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64"/>
+      <c r="M64" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67"/>
+      <c r="M67" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68"/>
+      <c r="M68" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="M70" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="M72" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="M73" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="M74" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="J75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="K75" s="2"/>
+      <c r="M75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="A6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="13">
-      <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="13">
-      <c r="A9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="13">
-      <c r="A10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="13">
-      <c r="A11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="13">
-      <c r="A16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" ht="13">
-      <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="13">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" ht="13">
-      <c r="A23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" ht="13">
-      <c r="A24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="13">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="13">
-      <c r="A26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="13">
-      <c r="A27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="13">
-      <c r="A28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="13">
-      <c r="A29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="13">
-      <c r="A30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="13">
-      <c r="A32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:14" ht="13">
-      <c r="A33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="13">
-      <c r="A34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:14" ht="13">
-      <c r="A35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" ht="13">
-      <c r="A36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" ht="13">
-      <c r="A37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="13">
-      <c r="A38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" ht="13">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="13">
-      <c r="A40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="13">
-      <c r="A41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" ht="13">
-      <c r="A42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" ht="13">
-      <c r="A43" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" ht="13">
-      <c r="A44" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" ht="13">
-      <c r="A45" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" ht="13">
-      <c r="A46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="13">
-      <c r="A47" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="13">
-      <c r="A48" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="13">
-      <c r="A49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" ht="13">
-      <c r="A50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" ht="13">
-      <c r="A51" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" ht="13">
-      <c r="A52" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" ht="13">
-      <c r="A53" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14" ht="13">
-      <c r="A54" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="1:14" ht="13">
-      <c r="A55" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K55" s="11"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="1:14" ht="13">
-      <c r="A56" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14" ht="13">
-      <c r="A57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="1:14" ht="13">
-      <c r="A58" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="1:14" ht="13">
-      <c r="A59" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="1:14" ht="13">
-      <c r="A60" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="1:14" ht="13">
-      <c r="A61" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" spans="1:14" ht="13">
-      <c r="A62" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="K62" s="11"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="1:14" ht="13">
-      <c r="A63" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14" ht="13">
-      <c r="A64" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="1:14" ht="13">
-      <c r="A65" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="1:14" ht="13">
-      <c r="A66" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="1:14" ht="13">
-      <c r="A67" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" spans="1:14" ht="13">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="1:14" ht="13">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="1:14" ht="13">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N70" s="10"/>
-    </row>
-    <row r="71" spans="1:14" ht="13">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" spans="1:14" ht="13">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="1:14" ht="13">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J73" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" spans="1:14" ht="13">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" spans="1:14" ht="13">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="79" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="78" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="77" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="duplicateValues" dxfId="76" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="75" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="74" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="73" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="71" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="70" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="69" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="68" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="67" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="66" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="64" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="63" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="61" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="59" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="58" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="56" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="55" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="54" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="53" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="50" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="48" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="46" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="45" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="42" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63">
+    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64">
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="52" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="51" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="50" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="49" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="48" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="47" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="45" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="37" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="35" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I57 I60:I61 I72:I73 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I52 I54 I63:I64 I67:I68 I70 I6 I8" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -21222,436 +20990,436 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="48.26953125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="10" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C25" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="10" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="10" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="10" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="C30" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -21660,56 +21428,56 @@
     <sortCondition ref="D2:D5"/>
   </sortState>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL50_Script_ManageJournalCategories_21B.xlsx
+++ b/GL50_Script_ManageJournalCategories_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\GNB Batch 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB9E56-F69D-4EA7-9BBA-6438E502FAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA26892-B517-4FF0-8ADF-60FA585C8A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$N$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$M$79</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="264">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>Clicked on SearchLedger</t>
+  </si>
+  <si>
+    <t>Enter the SearchLedger</t>
+  </si>
+  <si>
+    <t>SearchLedger entered</t>
   </si>
   <si>
     <t>Enter</t>
@@ -805,16 +811,13 @@
     <t>wait</t>
   </si>
   <si>
-    <t xml:space="preserve">Entered  </t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Category </t>
-  </si>
-  <si>
-    <t>Entered Category</t>
+    <t>Set Edit</t>
+  </si>
+  <si>
+    <t>Edited</t>
+  </si>
+  <si>
+    <t>EditCategory</t>
   </si>
 </sst>
 </file>
@@ -17092,7 +17095,77 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18247,10 +18320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18313,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18379,7 +18452,7 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18412,7 +18485,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18445,7 +18518,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18477,12 +18550,12 @@
         <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6"/>
       <c r="M6" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18512,7 +18585,7 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18544,12 +18617,12 @@
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8"/>
       <c r="M8" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18579,7 +18652,7 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -18611,12 +18684,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
       <c r="M10" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -18646,7 +18719,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1">
@@ -18678,12 +18751,12 @@
         <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="8" customFormat="1">
@@ -18716,7 +18789,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="8" customFormat="1">
@@ -18748,12 +18821,12 @@
         <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1">
@@ -18786,7 +18859,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="11" customFormat="1">
@@ -18803,25 +18876,25 @@
         <v>142</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="10"/>
       <c r="M16" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -18853,11 +18926,11 @@
         <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -18890,7 +18963,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1">
@@ -18927,7 +19000,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1">
@@ -18959,12 +19032,12 @@
         <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1">
@@ -18997,7 +19070,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="7"/>
       <c r="M21" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1">
@@ -19029,12 +19102,12 @@
         <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="8" customFormat="1">
@@ -19067,7 +19140,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19099,12 +19172,12 @@
         <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24"/>
       <c r="M24" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -19134,7 +19207,7 @@
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -19166,12 +19239,12 @@
         <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26"/>
       <c r="M26" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -19201,7 +19274,7 @@
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -19238,7 +19311,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -19275,7 +19348,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -19312,7 +19385,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
       <c r="M30" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -19342,7 +19415,7 @@
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -19353,7 +19426,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>142</v>
@@ -19362,20 +19435,20 @@
         <v>142</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19386,7 +19459,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>62</v>
@@ -19407,12 +19480,12 @@
         <v>41</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33"/>
       <c r="M33" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19423,7 +19496,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>64</v>
@@ -19442,7 +19515,7 @@
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19453,7 +19526,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>78</v>
@@ -19474,12 +19547,12 @@
         <v>41</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35"/>
       <c r="M35" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19490,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>193</v>
@@ -19502,16 +19575,16 @@
         <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -19537,10 +19610,10 @@
         <v>20</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -19557,7 +19630,7 @@
         <v>197</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>23</v>
@@ -19566,7 +19639,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>41</v>
@@ -19576,7 +19649,7 @@
       </c>
       <c r="K38" s="6"/>
       <c r="M38" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -19590,25 +19663,25 @@
         <v>166</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -19622,10 +19695,10 @@
         <v>167</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
@@ -19634,10 +19707,10 @@
         <v>20</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -19648,10 +19721,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>35</v>
@@ -19663,16 +19736,16 @@
         <v>36</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -19683,13 +19756,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>23</v>
@@ -19698,7 +19771,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>41</v>
@@ -19708,7 +19781,7 @@
       </c>
       <c r="K42" s="6"/>
       <c r="M42" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -19719,28 +19792,28 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -19751,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>142</v>
@@ -19760,20 +19833,20 @@
         <v>142</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -19784,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>85</v>
@@ -19799,18 +19872,18 @@
         <v>36</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45"/>
       <c r="M45" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -19821,7 +19894,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>82</v>
@@ -19836,11 +19909,11 @@
         <v>20</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -19851,7 +19924,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>142</v>
@@ -19860,20 +19933,20 @@
         <v>142</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -19884,7 +19957,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>85</v>
@@ -19905,12 +19978,12 @@
         <v>41</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48"/>
       <c r="M48" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -19921,7 +19994,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>86</v>
@@ -19940,7 +20013,7 @@
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -19951,33 +20024,29 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>262</v>
+        <v>220</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="K50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -19988,26 +20057,33 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" s="6"/>
       <c r="L51" s="4"/>
       <c r="M51" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -20018,33 +20094,29 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>62</v>
+        <v>220</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K52" s="2"/>
-      <c r="L52"/>
       <c r="M52" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -20058,10 +20130,10 @@
         <v>224</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
@@ -20070,11 +20142,11 @@
         <v>20</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -20085,33 +20157,29 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>78</v>
+        <v>220</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K54" s="2"/>
-      <c r="L54"/>
       <c r="M54" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -20122,28 +20190,33 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>193</v>
+        <v>225</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>204</v>
+        <v>36</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55"/>
       <c r="M55" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -20154,13 +20227,13 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
@@ -20168,11 +20241,12 @@
       <c r="G56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="H56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -20183,32 +20257,33 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>227</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>204</v>
+        <v>36</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="6"/>
+        <v>254</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57"/>
       <c r="M57" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -20219,28 +20294,28 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -20251,13 +20326,13 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>23</v>
@@ -20266,10 +20341,10 @@
         <v>20</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -20280,31 +20355,32 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K60" s="6"/>
       <c r="M60" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -20315,32 +20391,28 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="6"/>
+        <v>201</v>
+      </c>
       <c r="M61" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -20351,28 +20423,25 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="M62" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -20383,29 +20452,31 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>251</v>
+        <v>35</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K63" s="2"/>
+        <v>254</v>
+      </c>
       <c r="M63" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -20416,33 +20487,32 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>169</v>
+        <v>234</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64"/>
+        <v>22</v>
+      </c>
+      <c r="K64" s="6"/>
       <c r="M64" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -20455,31 +20525,26 @@
       <c r="C65" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>89</v>
+      <c r="D65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="4"/>
+        <v>201</v>
+      </c>
       <c r="M65" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -20492,24 +20557,27 @@
       <c r="C66" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L66" s="4"/>
+      <c r="D66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -20520,10 +20588,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>35</v>
@@ -20534,67 +20602,73 @@
       <c r="G67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="5" t="s">
-        <v>50</v>
+      <c r="H67" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67"/>
       <c r="M67" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:13">
+      <c r="A68" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68"/>
+        <v>263</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:13">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>59</v>
+      <c r="D69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>23</v>
@@ -20602,84 +20676,82 @@
       <c r="G69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="2"/>
+      <c r="H69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:13">
+      <c r="A70" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:13">
+      <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>176</v>
+        <v>239</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>174</v>
+        <v>36</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="K71" s="2"/>
+      <c r="L71"/>
       <c r="M71" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -20687,13 +20759,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>23</v>
@@ -20702,17 +20774,18 @@
         <v>36</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K72" s="2"/>
+      <c r="L72"/>
       <c r="M72" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -20720,32 +20793,32 @@
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="K73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -20753,32 +20826,32 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="K74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -20786,19 +20859,22 @@
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>21</v>
@@ -20808,175 +20884,328 @@
       </c>
       <c r="K75" s="2"/>
       <c r="M75" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="B76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="M76" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="B77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="M78" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="B79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="M79" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="80" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="79" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="78" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="duplicateValues" dxfId="77" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="76" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="duplicateValues" dxfId="75" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="74" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="73" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="72" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="71" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="77" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="76" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="75" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="74" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="73" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="72" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="71" priority="52"/>
     <cfRule type="duplicateValues" dxfId="70" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="J5">
     <cfRule type="duplicateValues" dxfId="69" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="duplicateValues" dxfId="68" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="67" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="66" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="65" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="64" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="62" priority="43"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="61" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="60" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="59" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="58" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="57" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="duplicateValues" dxfId="61" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="duplicateValues" dxfId="60" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="50" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="48" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="46" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="45" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="duplicateValues" dxfId="47" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="46" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="duplicateValues" dxfId="45" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="duplicateValues" dxfId="44" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="42" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="25"/>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63">
-    <cfRule type="duplicateValues" dxfId="36" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I57 I60:I61 I72:I73 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I52 I54 I63:I64 I67:I68 I70 I6 I8" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I60 I63:I64 I76:I77 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I54:I55 I57 I66:I67 I70:I72 I74 I6 I8 I50 I52" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21053,7 +21282,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -21355,13 +21584,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -21369,13 +21598,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>23</v>
@@ -21383,13 +21612,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>23</v>
@@ -21403,7 +21632,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>23</v>
@@ -21411,13 +21640,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -21428,56 +21657,56 @@
     <sortCondition ref="D2:D5"/>
   </sortState>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL50_Script_ManageJournalCategories_21B.xlsx
+++ b/GL50_Script_ManageJournalCategories_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA26892-B517-4FF0-8ADF-60FA585C8A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E8017-2F6B-4640-8057-EA30EB4AA2C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManageJournalCategories" sheetId="30" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AllObjects!$A$1:$D$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$M$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ManageJournalCategories!$A$1:$M$86</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="279">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -751,9 +751,6 @@
   </si>
   <si>
     <t>Exists||Step 42-Step 44||Step 45-Step 48</t>
-  </si>
-  <si>
-    <t>Exists||Step 61-Step 63||Step 64-Step 67</t>
   </si>
   <si>
     <t>//button[@id='btnActive']</t>
@@ -818,6 +815,54 @@
   </si>
   <si>
     <t>EditCategory</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t>EditDescription1</t>
+  </si>
+  <si>
+    <t>Step 81</t>
+  </si>
+  <si>
+    <t>Step 82</t>
+  </si>
+  <si>
+    <t>Step 83</t>
+  </si>
+  <si>
+    <t>Step 84</t>
+  </si>
+  <si>
+    <t>Step 85</t>
+  </si>
+  <si>
+    <t>Step 86</t>
+  </si>
+  <si>
+    <t>Step 87</t>
+  </si>
+  <si>
+    <t>Step 88</t>
+  </si>
+  <si>
+    <t>Step 89</t>
+  </si>
+  <si>
+    <t>Step 90</t>
+  </si>
+  <si>
+    <t>Step 91</t>
+  </si>
+  <si>
+    <t>Exists||Step 69-Step 71||Step 72-Step 75</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'table2:21:outputText3::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'table2:21:outputText3::content')]</t>
   </si>
 </sst>
 </file>
@@ -17095,7 +17140,317 @@
     <cellStyle name="Warning Text 9" xfId="5939" xr:uid="{00000000-0005-0000-0000-0000911E0000}"/>
     <cellStyle name="Warning Text 9 2" xfId="7821" xr:uid="{00000000-0005-0000-0000-0000921E0000}"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="119">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18320,10 +18675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18386,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18452,7 +18807,7 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18485,7 +18840,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="M4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18518,7 +18873,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18550,12 +18905,12 @@
         <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6"/>
       <c r="M6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18585,7 +18940,7 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18617,12 +18972,12 @@
         <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8"/>
       <c r="M8" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18652,7 +19007,7 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -18684,12 +19039,12 @@
         <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
       <c r="M10" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -18719,7 +19074,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1">
@@ -18751,12 +19106,12 @@
         <v>41</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="8" customFormat="1">
@@ -18789,7 +19144,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="8" customFormat="1">
@@ -18821,12 +19176,12 @@
         <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1">
@@ -18859,7 +19214,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="11" customFormat="1">
@@ -18876,25 +19231,25 @@
         <v>142</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="10"/>
       <c r="M16" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -18926,11 +19281,11 @@
         <v>41</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -18963,7 +19318,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1">
@@ -19000,7 +19355,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1">
@@ -19032,12 +19387,12 @@
         <v>41</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1">
@@ -19070,7 +19425,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="7"/>
       <c r="M21" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1">
@@ -19102,12 +19457,12 @@
         <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="8" customFormat="1">
@@ -19140,7 +19495,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19172,12 +19527,12 @@
         <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24"/>
       <c r="M24" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -19207,7 +19562,7 @@
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -19239,12 +19594,12 @@
         <v>41</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26"/>
       <c r="M26" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -19274,7 +19629,7 @@
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -19311,7 +19666,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="4"/>
       <c r="M28" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -19348,7 +19703,7 @@
       <c r="K29" s="6"/>
       <c r="L29" s="4"/>
       <c r="M29" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -19385,7 +19740,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
       <c r="M30" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -19415,7 +19770,7 @@
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -19435,20 +19790,20 @@
         <v>142</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19459,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>62</v>
@@ -19480,12 +19835,12 @@
         <v>41</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33"/>
       <c r="M33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19496,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>64</v>
@@ -19515,7 +19870,7 @@
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19526,7 +19881,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>78</v>
@@ -19547,12 +19902,12 @@
         <v>41</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35"/>
       <c r="M35" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19563,7 +19918,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>193</v>
@@ -19575,7 +19930,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>206</v>
@@ -19584,7 +19939,7 @@
         <v>241</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -19613,7 +19968,7 @@
         <v>206</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -19649,7 +20004,7 @@
       </c>
       <c r="K38" s="6"/>
       <c r="M38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -19681,7 +20036,7 @@
         <v>201</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -19710,7 +20065,7 @@
         <v>204</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -19742,10 +20097,10 @@
         <v>41</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -19781,7 +20136,7 @@
       </c>
       <c r="K42" s="6"/>
       <c r="M42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -19813,7 +20168,7 @@
         <v>201</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -19833,20 +20188,20 @@
         <v>142</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -19878,12 +20233,12 @@
         <v>41</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45"/>
       <c r="M45" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -19913,7 +20268,7 @@
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -19933,20 +20288,20 @@
         <v>142</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -19978,12 +20333,12 @@
         <v>41</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48"/>
       <c r="M48" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -20013,7 +20368,7 @@
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -20024,7 +20379,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>142</v>
@@ -20033,20 +20388,20 @@
         <v>142</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -20057,13 +20412,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>23</v>
@@ -20078,12 +20433,12 @@
         <v>41</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="4"/>
       <c r="M51" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -20094,7 +20449,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>142</v>
@@ -20103,20 +20458,20 @@
         <v>142</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -20127,26 +20482,33 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L53" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53"/>
       <c r="M53" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -20157,29 +20519,26 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>142</v>
+        <v>227</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -20190,33 +20549,29 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>62</v>
+        <v>228</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K55" s="2"/>
-      <c r="L55"/>
       <c r="M55" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -20227,26 +20582,33 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K56" s="6"/>
       <c r="L56" s="4"/>
       <c r="M56" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -20257,33 +20619,29 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>78</v>
+        <v>230</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K57" s="2"/>
-      <c r="L57"/>
       <c r="M57" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -20294,28 +20652,26 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>194</v>
+        <v>231</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -20326,25 +20682,29 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>206</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -20355,32 +20715,33 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>197</v>
+        <v>233</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>206</v>
+        <v>36</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60"/>
       <c r="M60" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -20391,28 +20752,26 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>199</v>
+        <v>234</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -20423,25 +20782,33 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>202</v>
+        <v>235</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62"/>
       <c r="M62" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -20452,31 +20819,28 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -20487,32 +20851,25 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="6"/>
       <c r="M64" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -20523,28 +20880,32 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="I65" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K65" s="6"/>
       <c r="M65" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -20555,29 +20916,28 @@
         <v>1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>41</v>
+        <v>199</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>201</v>
+      </c>
       <c r="M66" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -20588,33 +20948,25 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>169</v>
+        <v>239</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67"/>
+        <v>204</v>
+      </c>
       <c r="M67" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -20625,33 +20977,31 @@
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>89</v>
+        <v>170</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K68" s="6"/>
-      <c r="L68" s="4"/>
+        <v>253</v>
+      </c>
       <c r="M68" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -20662,26 +21012,32 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>74</v>
+        <v>240</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="6"/>
       <c r="M69" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -20692,29 +21048,28 @@
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>41</v>
+        <v>199</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K70" s="2"/>
+        <v>201</v>
+      </c>
       <c r="M70" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -20725,41 +21080,40 @@
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>62</v>
+        <v>175</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>50</v>
+        <v>142</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K71" s="2"/>
-      <c r="L71"/>
       <c r="M71" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:13">
+      <c r="A72" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>169</v>
@@ -20774,216 +21128,225 @@
         <v>36</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72"/>
       <c r="M72" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:13">
+      <c r="A73" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>182</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>21</v>
+        <v>212</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="K73" s="6"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:13">
+      <c r="A74" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:13">
+      <c r="A75" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>177</v>
+        <v>250</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>21</v>
+        <v>264</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>180</v>
+        <v>265</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K76" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:13">
+      <c r="A77" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>185</v>
+        <v>142</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>41</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>186</v>
+        <v>267</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>185</v>
+        <v>36</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="K78" s="2"/>
+      <c r="L78"/>
       <c r="M78" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -20991,221 +21354,516 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79"/>
+      <c r="M79" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="M81" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="M83" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="M85" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
+      <c r="B86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="M79" s="2" t="s">
+      <c r="K86" s="2"/>
+      <c r="M86" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="duplicateValues" dxfId="87" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="duplicateValues" dxfId="86" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="duplicateValues" dxfId="85" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="duplicateValues" dxfId="84" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="duplicateValues" dxfId="83" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
+    <cfRule type="duplicateValues" dxfId="113" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="duplicateValues" dxfId="112" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="duplicateValues" dxfId="111" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="duplicateValues" dxfId="110" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="duplicateValues" dxfId="109" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="108" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="duplicateValues" dxfId="107" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="duplicateValues" dxfId="106" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="duplicateValues" dxfId="105" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="duplicateValues" dxfId="104" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="103" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="duplicateValues" dxfId="102" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="100" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="duplicateValues" dxfId="99" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="duplicateValues" dxfId="98" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="duplicateValues" dxfId="97" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="duplicateValues" dxfId="96" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="duplicateValues" dxfId="95" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="duplicateValues" dxfId="94" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="duplicateValues" dxfId="93" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="duplicateValues" dxfId="92" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44">
+    <cfRule type="duplicateValues" dxfId="91" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="duplicateValues" dxfId="90" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="duplicateValues" dxfId="89" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="duplicateValues" dxfId="88" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="87" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="duplicateValues" dxfId="86" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="84" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="duplicateValues" dxfId="83" priority="65"/>
     <cfRule type="duplicateValues" dxfId="82" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="duplicateValues" dxfId="81" priority="63"/>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="81" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="duplicateValues" dxfId="80" priority="64"/>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="duplicateValues" dxfId="80" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="duplicateValues" dxfId="79" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
+  <conditionalFormatting sqref="H60">
     <cfRule type="duplicateValues" dxfId="78" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="J60">
     <cfRule type="duplicateValues" dxfId="77" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H62">
     <cfRule type="duplicateValues" dxfId="76" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="J62">
     <cfRule type="duplicateValues" dxfId="75" priority="58"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="J71">
     <cfRule type="duplicateValues" dxfId="74" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+  <conditionalFormatting sqref="H71">
     <cfRule type="duplicateValues" dxfId="73" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="72" priority="51"/>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="72" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="duplicateValues" dxfId="71" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="69" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="duplicateValues" dxfId="68" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="duplicateValues" dxfId="66" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="duplicateValues" dxfId="65" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="duplicateValues" dxfId="64" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="63" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="duplicateValues" dxfId="71" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="duplicateValues" dxfId="61" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="duplicateValues" dxfId="60" priority="41"/>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="68" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="duplicateValues" dxfId="67" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="duplicateValues" dxfId="58" priority="39"/>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="duplicateValues" dxfId="65" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="duplicateValues" dxfId="63" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="duplicateValues" dxfId="62" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="duplicateValues" dxfId="61" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="duplicateValues" dxfId="60" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="duplicateValues" dxfId="59" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="duplicateValues" dxfId="57" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="duplicateValues" dxfId="56" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="duplicateValues" dxfId="55" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="duplicateValues" dxfId="54" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
     <cfRule type="duplicateValues" dxfId="53" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="35"/>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="duplicateValues" dxfId="52" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="51" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="duplicateValues" dxfId="49" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="duplicateValues" dxfId="50" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="duplicateValues" dxfId="48" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="duplicateValues" dxfId="47" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="duplicateValues" dxfId="46" priority="29"/>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="duplicateValues" dxfId="46" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="duplicateValues" dxfId="45" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="duplicateValues" dxfId="44" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="duplicateValues" dxfId="43" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="41" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="duplicateValues" dxfId="38" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="duplicateValues" dxfId="32" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="duplicateValues" dxfId="30" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="duplicateValues" dxfId="43" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="41" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="duplicateValues" dxfId="40" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74">
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="duplicateValues" dxfId="31" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I60 I63:I64 I76:I77 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I54:I55 I57 I66:I67 I70:I72 I74 I6 I8 I50 I52" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I65 I68:I69 I83:I84 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I59:I60 I62 I71:I72 I77:I79 I81 I6 I8 I50 I52:I53 I55 I57 I74" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21217,7 +21875,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
@@ -21227,7 +21885,7 @@
   <cols>
     <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="71.90625" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
@@ -21282,7 +21940,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -21649,6 +22307,34 @@
         <v>213</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -21656,57 +22342,71 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D5">
     <sortCondition ref="D2:D5"/>
   </sortState>
-  <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="157"/>
+  <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A33:A1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="163"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A31:A1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="161"/>
+  <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A33:A1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/GL50_Script_ManageJournalCategories_21B.xlsx
+++ b/GL50_Script_ManageJournalCategories_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\25th June GL Full Batch\23June-GL Files\Batch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085E8017-2F6B-4640-8057-EA30EB4AA2C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08A7FC-9FCB-40CF-935B-B6599D90818F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="282">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -863,6 +863,15 @@
   </si>
   <si>
     <t>//*[contains(@id,'table2:21:outputText3::content')]</t>
+  </si>
+  <si>
+    <t>Explicit wait for EditCat</t>
+  </si>
+  <si>
+    <t>Click on EditCat</t>
+  </si>
+  <si>
+    <t>Clicked on EditCat</t>
   </si>
 </sst>
 </file>
@@ -18678,7 +18687,7 @@
   <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -20315,7 +20324,7 @@
         <v>221</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>35</v>
@@ -20352,10 +20361,10 @@
         <v>222</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>23</v>
@@ -21856,11 +21865,11 @@
     <cfRule type="duplicateValues" dxfId="31" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I19:I20 I2:I3 I38 I41:I42 I65 I68:I69 I83:I84 I10 I12 I14 I16:I17 I22 I24 I26 I32:I33 I35 I44:I45 I47:I48 I59:I60 I62 I71:I72 I77:I79 I81 I6 I8 I50 I52:I53 I55 I57 I74" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -22343,70 +22352,70 @@
     <sortCondition ref="D2:D5"/>
   </sortState>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A33:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26 A1:A5 A7:A16 A28:A29 A33:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A25">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation showInputMessage="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
